--- a/Section 11/aula-financeiras.xlsx
+++ b/Section 11/aula-financeiras.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\10 Fórmulas avançadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos\Excel\Section 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F310A9-8E7F-4CD4-B31F-53CFA90D2B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financeiras" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -117,11 +129,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -250,12 +263,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,13 +289,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -290,50 +301,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -644,28 +656,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="14.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="2" customWidth="1"/>
     <col min="12" max="14" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="15" max="16384" width="9.109375" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +690,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -691,174 +703,221 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7">
+        <v>15000</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>1000</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="I6" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="E7" s="8" t="s">
+      <c r="C7" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="17">
+        <v>45219</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="I7" s="17">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="8">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="17">
+        <v>45157</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="I8" s="17">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="13">
+        <v>12</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="22">
+        <f>(F7-F8)/30</f>
+        <v>2.0666666666666669</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="I9" s="23">
+        <f>(I8-I7)/30</f>
+        <v>12.166666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="H10" s="10" t="s">
+      <c r="F10" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="I10" s="18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="21">
+        <f>PMT(C10,C9,-C8,0,0)</f>
+        <v>1066.1854641401003</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="H11" s="10" t="s">
+      <c r="F11" s="20"/>
+      <c r="H11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="I11" s="19">
+        <f>FV(I10,I9,0,-I6,0)</f>
+        <v>11286.952941593903</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="8">
+        <f>C11*C9</f>
+        <v>12794.225569681203</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="F12" s="19">
+        <f>PV(F10,F9,0,-F6,0)</f>
+        <v>821.21167938798146</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="C13" s="11">
+        <f>C12-C8</f>
+        <v>794.22556968120261</v>
+      </c>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="17"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
